--- a/DanhSachHopDong.xlsx
+++ b/DanhSachHopDong.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Mã trưởng nhóm</t>
   </si>
   <si>
+    <t>Mã toà</t>
+  </si>
+  <si>
     <t>Mã phòng</t>
   </si>
   <si>
@@ -50,16 +53,19 @@
     <t>SV001</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>A101</t>
   </si>
   <si>
-    <t>2024-07-04</t>
-  </si>
-  <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>Hết hạn</t>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+  </si>
+  <si>
+    <t>Còn hạn</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -448,13 +454,14 @@
     <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,31 +486,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
